--- a/blogposts/7_13_20_PsychEugenics/APA_E_ratings.xlsx
+++ b/blogposts/7_13_20_PsychEugenics/APA_E_ratings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattcrump/Dropbox (Brooklyn College)/DraftTable/Repos/CrumpLab.github.io/blogposts/7_13_20_PsychEugenics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1AD17B-0540-BE40-A387-E85E476F5BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997073BA-09A0-2F4C-92FE-707DF0CCA4B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="1300" windowWidth="27640" windowHeight="16540" xr2:uid="{87353FAE-4EAF-4D4F-B58A-131FA104F9C3}"/>
+    <workbookView xWindow="6200" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{87353FAE-4EAF-4D4F-B58A-131FA104F9C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -812,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C42C40-B92C-714D-A9E7-5E8BE8C6103E}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2400,6 +2400,12 @@
         <v>1</v>
       </c>
     </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D131">
+        <f>SUM(D79:D129)</f>
+        <v>34.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
